--- a/HW1/test_plan.xlsx
+++ b/HW1/test_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\BGU\Python_basics_class\HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A07ACEB-B493-4DE9-9D9D-1C645BC0B302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72679020-E680-4ADB-A403-D9780D8512A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{107459A2-8637-4885-BFED-4E9F7A188B1A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10660" xr2:uid="{107459A2-8637-4885-BFED-4E9F7A188B1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,65 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
-  <si>
-    <t xml:space="preserve">test plan </t>
-  </si>
-  <si>
-    <t>exersise 1</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
   <si>
     <t xml:space="preserve"> ינואר, מרץ, מאי, יולי, אוגוסט, אוקטובר, דצמבר: 1 עד 31</t>
   </si>
   <si>
-    <t xml:space="preserve">פברואר- o 1 עד 29 אם השנה היא שנה מעוברת. 1 עד 28 אחרת. </t>
-  </si>
-  <si>
     <t>מקרים מיוחדים נוספים</t>
   </si>
   <si>
     <t>שנה מסומנת בצהוב היא שנה מעוברת</t>
   </si>
   <si>
-    <t>exersise 2</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>הזנה ראשונה</t>
-  </si>
-  <si>
-    <t>הזנה שנייה</t>
-  </si>
-  <si>
-    <t>הזנה שלישית</t>
-  </si>
-  <si>
-    <t>output 1</t>
-  </si>
-  <si>
     <t>output 2</t>
   </si>
   <si>
-    <t>exersise 3</t>
-  </si>
-  <si>
     <t>שווה צלעות</t>
   </si>
   <si>
@@ -215,20 +170,74 @@
     <t>Invalid date.</t>
   </si>
   <si>
-    <t>exersise4</t>
-  </si>
-  <si>
     <t>(2,3,4)</t>
   </si>
   <si>
     <t>יש כזה עם מספרים שלמים?</t>
+  </si>
+  <si>
+    <t>Exercise 4</t>
+  </si>
+  <si>
+    <t>Exercise 3</t>
+  </si>
+  <si>
+    <t>Exercise 2</t>
+  </si>
+  <si>
+    <t>Exercise 1</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Input 1</t>
+  </si>
+  <si>
+    <t>Input 2</t>
+  </si>
+  <si>
+    <t>Input 3</t>
+  </si>
+  <si>
+    <t>Output 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Plan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">פברואר-  1 עד 29 אם השנה היא שנה מעוברת. 1 עד 28 אחרת. </t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>https://www.calendar.best/leap-years.html - רשימה של שנים מעוברות</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Category:Leap_years_in_the_Gregorian_calendar</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,8 +252,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +328,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -433,10 +462,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -477,39 +507,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -528,12 +525,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -543,6 +534,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -552,14 +555,51 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -892,13 +932,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E5E8DD-C08B-4861-994D-725428B0C3D3}">
-  <dimension ref="B7:S42"/>
+  <dimension ref="B7:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="2.81640625" style="1" customWidth="1"/>
@@ -921,138 +961,138 @@
     <col min="20" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="40"/>
-    </row>
-    <row r="8" spans="2:19">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
-      <c r="C8" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-    </row>
-    <row r="9" spans="2:19">
+      <c r="C8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9" s="11"/>
       <c r="C9" s="10" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="2:19">
+    <row r="10" spans="2:19" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="C10" s="10" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="Q10" s="5" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11" s="11">
         <v>1</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>7</v>
+      <c r="C11" s="32" t="s">
+        <v>0</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -1064,25 +1104,25 @@
         <v>2040</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="I11" s="3">
         <v>6</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="N11" s="4">
         <v>1</v>
@@ -1093,21 +1133,21 @@
       <c r="P11" s="4">
         <v>3</v>
       </c>
-      <c r="Q11" s="14" t="s">
-        <v>19</v>
+      <c r="Q11" s="39" t="s">
+        <v>4</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12" s="11">
         <v>2</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="2">
         <v>35</v>
       </c>
@@ -1118,24 +1158,24 @@
         <v>1800</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="I12" s="3">
         <v>12</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M12" s="31"/>
       <c r="N12" s="4">
         <v>5</v>
       </c>
@@ -1145,19 +1185,19 @@
       <c r="P12" s="4">
         <v>8</v>
       </c>
-      <c r="Q12" s="16"/>
+      <c r="Q12" s="40"/>
       <c r="R12" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="58">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="58" x14ac:dyDescent="0.35">
       <c r="B13" s="11">
         <v>3</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="2">
         <v>5</v>
       </c>
@@ -1168,10 +1208,10 @@
         <v>1900</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="I13" s="3">
         <v>53</v>
@@ -1180,13 +1220,13 @@
         <v>2</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>18</v>
       </c>
       <c r="N13" s="4">
         <v>56</v>
@@ -1195,23 +1235,23 @@
         <v>59</v>
       </c>
       <c r="P13" s="4">
-        <v>58</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="34" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
         <v>4</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="2">
         <v>56</v>
       </c>
@@ -1222,10 +1262,10 @@
         <v>2048</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="I14" s="3">
         <v>43</v>
@@ -1234,12 +1274,12 @@
         <v>12</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="M14" s="31"/>
       <c r="N14" s="4">
         <v>12</v>
       </c>
@@ -1249,15 +1289,15 @@
       <c r="P14" s="4">
         <v>14</v>
       </c>
-      <c r="Q14" s="16"/>
+      <c r="Q14" s="40"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15" s="11">
         <v>5</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="2">
         <v>31</v>
       </c>
@@ -1268,10 +1308,10 @@
         <v>1945</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="I15" s="3">
         <v>78</v>
@@ -1283,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="N15" s="4">
         <v>123</v>
@@ -1297,21 +1337,21 @@
       <c r="P15" s="4">
         <v>128</v>
       </c>
-      <c r="Q15" s="14" t="s">
-        <v>21</v>
+      <c r="Q15" s="39" t="s">
+        <v>6</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16" s="11">
         <v>6</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="2">
         <v>100</v>
       </c>
@@ -1322,10 +1362,10 @@
         <v>2004</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="I16" s="3">
         <v>98</v>
@@ -1337,31 +1377,31 @@
         <v>-4</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="M16" s="31"/>
       <c r="N16" s="4">
         <v>958</v>
       </c>
       <c r="O16" s="4">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="P16" s="4">
         <v>1234</v>
       </c>
-      <c r="Q16" s="16"/>
+      <c r="Q16" s="40"/>
       <c r="R16" s="5" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17" s="11">
         <v>7</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="2">
         <v>31</v>
       </c>
@@ -1372,10 +1412,10 @@
         <v>1745</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -1387,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M17" s="8">
         <v>0</v>
@@ -1396,26 +1436,26 @@
         <v>0</v>
       </c>
       <c r="O17" s="4">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4">
         <v>2</v>
       </c>
-      <c r="P17" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>22</v>
+      <c r="Q17" s="39" t="s">
+        <v>7</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" ht="14.5" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="11">
         <v>8</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="2">
         <v>1</v>
       </c>
@@ -1426,9 +1466,9 @@
         <v>2000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="32"/>
+        <v>42</v>
+      </c>
+      <c r="H18" s="37"/>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1439,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>10</v>
       </c>
       <c r="N18" s="4">
         <v>1</v>
@@ -1453,37 +1493,37 @@
       <c r="P18" s="4">
         <v>3</v>
       </c>
-      <c r="Q18" s="16"/>
+      <c r="Q18" s="40"/>
       <c r="R18" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="11">
         <v>9</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="2">
         <v>35</v>
       </c>
       <c r="E19" s="2">
         <v>8</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="24">
         <v>1700</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="H19" s="37"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="19"/>
+      <c r="M19" s="38"/>
       <c r="N19" s="4">
         <v>2</v>
       </c>
@@ -1493,97 +1533,97 @@
       <c r="P19" s="4">
         <v>4</v>
       </c>
-      <c r="Q19" s="14" t="s">
-        <v>23</v>
+      <c r="Q19" s="39" t="s">
+        <v>8</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" ht="14.5" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="11">
         <v>10</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="2">
         <v>5</v>
       </c>
       <c r="E20" s="2">
         <v>8</v>
       </c>
-      <c r="F20" s="26">
-        <v>1200</v>
+      <c r="F20" s="15">
+        <v>2013</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="32"/>
+        <v>42</v>
+      </c>
+      <c r="H20" s="37"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="19"/>
+      <c r="M20" s="38"/>
       <c r="N20" s="4">
         <v>3</v>
       </c>
       <c r="O20" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P20" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="Q20" s="42"/>
       <c r="R20" s="5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21" s="11">
         <v>11</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="2">
         <v>56</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="15">
         <v>1254</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="H21" s="37"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="19"/>
+      <c r="M21" s="38"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="14" t="s">
-        <v>24</v>
+      <c r="Q21" s="39" t="s">
+        <v>9</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" s="11">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="2">
         <v>31</v>
       </c>
@@ -1594,30 +1634,30 @@
         <v>2000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="32"/>
+        <v>42</v>
+      </c>
+      <c r="H22" s="37"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="19"/>
+      <c r="M22" s="38"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="16"/>
+      <c r="Q22" s="40"/>
       <c r="R22" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" s="11">
         <v>13</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="2">
         <v>31</v>
       </c>
@@ -1628,32 +1668,32 @@
         <v>1325</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="32"/>
+        <v>42</v>
+      </c>
+      <c r="H23" s="37"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="38"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="14" t="s">
-        <v>25</v>
+      <c r="Q23" s="39" t="s">
+        <v>10</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24" s="11">
         <v>14</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="2">
         <v>32</v>
       </c>
@@ -1664,31 +1704,31 @@
         <v>2008</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="H24" s="37"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="24"/>
+      <c r="M24" s="31"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="42"/>
       <c r="R24" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25" s="11">
         <v>15</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>36</v>
+      <c r="C25" s="43" t="s">
+        <v>21</v>
       </c>
       <c r="D25" s="2">
         <v>54</v>
@@ -1696,13 +1736,13 @@
       <c r="E25" s="2">
         <v>4</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="14">
         <v>1400</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="H25" s="20"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
@@ -1711,15 +1751,15 @@
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
-      <c r="Q25" s="15"/>
+      <c r="Q25" s="42"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
     </row>
-    <row r="26" spans="2:19">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26" s="11">
         <v>16</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="2">
         <v>30</v>
       </c>
@@ -1730,9 +1770,9 @@
         <v>2012</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="33"/>
+        <v>42</v>
+      </c>
+      <c r="H26" s="20"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -1741,15 +1781,15 @@
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
-      <c r="Q26" s="15"/>
+      <c r="Q26" s="42"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27" s="11">
         <v>17</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="2">
         <v>23</v>
       </c>
@@ -1760,9 +1800,9 @@
         <v>1963</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="33"/>
+        <v>42</v>
+      </c>
+      <c r="H27" s="20"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -1771,15 +1811,15 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
-      <c r="Q27" s="15"/>
+      <c r="Q27" s="42"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28" s="11">
         <v>18</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="2">
         <v>30</v>
       </c>
@@ -1790,9 +1830,9 @@
         <v>1912</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="33"/>
+        <v>42</v>
+      </c>
+      <c r="H28" s="20"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -1801,15 +1841,15 @@
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
-      <c r="Q28" s="15"/>
+      <c r="Q28" s="42"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="2:19">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29" s="11">
         <v>19</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="2">
         <v>258</v>
       </c>
@@ -1817,12 +1857,12 @@
         <v>9</v>
       </c>
       <c r="F29" s="2">
-        <v>1964</v>
+        <v>2001</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="H29" s="20"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -1831,15 +1871,15 @@
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
-      <c r="Q29" s="15"/>
+      <c r="Q29" s="42"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
     </row>
-    <row r="30" spans="2:19">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30" s="11">
         <v>20</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="2">
         <v>1</v>
       </c>
@@ -1850,9 +1890,9 @@
         <v>1908</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="33"/>
+        <v>42</v>
+      </c>
+      <c r="H30" s="20"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
@@ -1861,15 +1901,15 @@
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
-      <c r="Q30" s="16"/>
+      <c r="Q30" s="40"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
     </row>
-    <row r="31" spans="2:19">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31" s="11">
         <v>21</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="2">
         <v>-1</v>
       </c>
@@ -1880,9 +1920,9 @@
         <v>1884</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="H31" s="20"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -1892,11 +1932,11 @@
       <c r="O31" s="13"/>
       <c r="P31" s="13"/>
     </row>
-    <row r="32" spans="2:19">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32" s="11">
         <v>22</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="2">
         <v>1</v>
       </c>
@@ -1907,9 +1947,9 @@
         <v>1243</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" s="33"/>
+        <v>42</v>
+      </c>
+      <c r="H32" s="20"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
@@ -1919,12 +1959,12 @@
       <c r="O32" s="13"/>
       <c r="P32" s="13"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" s="11">
         <v>23</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>8</v>
+      <c r="C33" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1933,12 +1973,12 @@
         <v>2</v>
       </c>
       <c r="F33" s="12">
-        <v>1700</v>
+        <v>1732</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="33"/>
+        <v>42</v>
+      </c>
+      <c r="H33" s="20"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
@@ -1948,11 +1988,11 @@
       <c r="O33" s="13"/>
       <c r="P33" s="13"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" s="11">
         <v>24</v>
       </c>
-      <c r="C34" s="22"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="2">
         <v>31</v>
       </c>
@@ -1963,14 +2003,14 @@
         <v>2032</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" s="11">
         <v>25</v>
       </c>
-      <c r="C35" s="22"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="2">
         <v>29</v>
       </c>
@@ -1981,14 +2021,14 @@
         <v>2040</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" s="11">
         <v>26</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="2">
         <v>30</v>
       </c>
@@ -1999,14 +2039,14 @@
         <v>200</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" s="11">
         <v>27</v>
       </c>
-      <c r="C37" s="23"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="2">
         <v>300</v>
       </c>
@@ -2017,19 +2057,17 @@
         <v>300</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" s="11">
         <v>28</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>9</v>
-      </c>
+      <c r="C38" s="33"/>
       <c r="D38" s="2">
         <v>28</v>
       </c>
@@ -2040,58 +2078,78 @@
         <v>563</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16">
+        <v>42</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39" s="11">
         <v>29</v>
       </c>
-      <c r="C39" s="22"/>
+      <c r="C39" s="41" t="s">
+        <v>1</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" s="11">
         <v>30</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" s="11">
         <v>31</v>
       </c>
-      <c r="C41" s="22"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" s="11">
         <v>32</v>
       </c>
-      <c r="C42" s="23"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
+    <row r="43" spans="2:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F43" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F44" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q23:Q30"/>
+    <mergeCell ref="C25:C32"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="C11:C24"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q23:Q30"/>
     <mergeCell ref="C8:S8"/>
     <mergeCell ref="H17:H24"/>
     <mergeCell ref="M18:M24"/>
@@ -2100,12 +2158,12 @@
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F43" r:id="rId1" xr:uid="{C3060103-1A16-4E6A-85CA-B95F04EDE191}"/>
+    <hyperlink ref="F44" r:id="rId2" xr:uid="{84F3D13B-0516-4504-86E8-3035B4F68998}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>